--- a/test_youtube/Krittika/02_gssspotted.xlsx
+++ b/test_youtube/Krittika/02_gssspotted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Documents\GitHub\AICARE\test_youtube\Krittika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD31EB3-8417-4FBD-B32C-FBE2BB741B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF34FD3-315F-4F9E-890B-3419D9B425CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="386">
   <si>
     <t>แหล่งที่มา</t>
   </si>
@@ -1136,6 +1136,57 @@
   <si>
     <t>label2</t>
   </si>
+  <si>
+    <t>18.29-18.30</t>
+  </si>
+  <si>
+    <t>20.13-20.14</t>
+  </si>
+  <si>
+    <t>20.57-20.58</t>
+  </si>
+  <si>
+    <t>22.42-22.43</t>
+  </si>
+  <si>
+    <t>23.48-23.49</t>
+  </si>
+  <si>
+    <t>23.49-23.50</t>
+  </si>
+  <si>
+    <t>24.36-24.37</t>
+  </si>
+  <si>
+    <t>25.36-25.37</t>
+  </si>
+  <si>
+    <t>27.05-27.06</t>
+  </si>
+  <si>
+    <t>27.47-27.48</t>
+  </si>
+  <si>
+    <t>27.52-27.53</t>
+  </si>
+  <si>
+    <t>28.2-28.21</t>
+  </si>
+  <si>
+    <t>28.52-28.53</t>
+  </si>
+  <si>
+    <t>29.03-29.04</t>
+  </si>
+  <si>
+    <t>29.45-29.46</t>
+  </si>
+  <si>
+    <t>30.49-30.50</t>
+  </si>
+  <si>
+    <t>30.59-31.00</t>
+  </si>
 </sst>
 </file>
 
@@ -1323,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1517,6 +1568,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1740,7 +1794,7 @@
   <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1772,8 +1826,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62">
-        <v>18.29</v>
+      <c r="A3" s="64" t="s">
+        <v>369</v>
       </c>
       <c r="B3" s="63" t="s">
         <v>18</v>
@@ -1783,7 +1837,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="63" t="s">
@@ -1946,8 +2000,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64">
-        <v>20.13</v>
+      <c r="A19" s="64" t="s">
+        <v>370</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>6</v>
@@ -2056,8 +2110,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64">
-        <v>20.57</v>
+      <c r="A29" s="64" t="s">
+        <v>371</v>
       </c>
       <c r="B29" s="65" t="s">
         <v>6</v>
@@ -2208,8 +2262,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68">
-        <v>22.42</v>
+      <c r="A43" s="68" t="s">
+        <v>372</v>
       </c>
       <c r="B43" s="68" t="s">
         <v>6</v>
@@ -2297,8 +2351,8 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="68">
-        <v>23.48</v>
+      <c r="A52" s="68" t="s">
+        <v>373</v>
       </c>
       <c r="B52" s="68" t="s">
         <v>9</v>
@@ -2306,8 +2360,8 @@
       <c r="C52" s="68"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="64">
-        <v>23.49</v>
+      <c r="A53" s="64" t="s">
+        <v>374</v>
       </c>
       <c r="B53" s="65" t="s">
         <v>9</v>
@@ -2423,8 +2477,8 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="64">
-        <v>24.36</v>
+      <c r="A64" s="64" t="s">
+        <v>375</v>
       </c>
       <c r="B64" s="65" t="s">
         <v>6</v>
@@ -2554,8 +2608,8 @@
       <c r="C76" s="68"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="64">
-        <v>25.36</v>
+      <c r="A77" s="64" t="s">
+        <v>376</v>
       </c>
       <c r="B77" s="65" t="s">
         <v>14</v>
@@ -2695,8 +2749,8 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="68">
-        <v>27.05</v>
+      <c r="A90" s="68" t="s">
+        <v>377</v>
       </c>
       <c r="B90" s="68" t="s">
         <v>6</v>
@@ -2735,8 +2789,8 @@
       <c r="C93" s="68"/>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="68">
-        <v>27.47</v>
+      <c r="A94" s="68" t="s">
+        <v>378</v>
       </c>
       <c r="B94" s="68" t="s">
         <v>14</v>
@@ -2755,8 +2809,8 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="64">
-        <v>27.52</v>
+      <c r="A96" s="64" t="s">
+        <v>379</v>
       </c>
       <c r="B96" s="65" t="s">
         <v>14</v>
@@ -2804,8 +2858,8 @@
       <c r="C100" s="68"/>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="64">
-        <v>28.2</v>
+      <c r="A101" s="64" t="s">
+        <v>380</v>
       </c>
       <c r="B101" s="65" t="s">
         <v>6</v>
@@ -2886,8 +2940,8 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="68">
-        <v>28.52</v>
+      <c r="A109" s="68" t="s">
+        <v>381</v>
       </c>
       <c r="B109" s="68" t="s">
         <v>6</v>
@@ -2915,8 +2969,8 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="68">
-        <v>29.03</v>
+      <c r="A112" s="68" t="s">
+        <v>382</v>
       </c>
       <c r="B112" s="69" t="s">
         <v>18</v>
@@ -2997,8 +3051,8 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="74">
-        <v>29.45</v>
+      <c r="A120" s="75" t="s">
+        <v>383</v>
       </c>
       <c r="B120" s="69" t="s">
         <v>18</v>
@@ -3094,8 +3148,8 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="64">
-        <v>30.49</v>
+      <c r="A129" s="64" t="s">
+        <v>384</v>
       </c>
       <c r="B129" s="67" t="s">
         <v>18</v>
@@ -3125,8 +3179,8 @@
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="68">
-        <v>30.59</v>
+      <c r="A132" s="68" t="s">
+        <v>385</v>
       </c>
       <c r="B132" s="69" t="s">
         <v>18</v>

--- a/test_youtube/Krittika/02_gssspotted.xlsx
+++ b/test_youtube/Krittika/02_gssspotted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Documents\GitHub\AICARE\test_youtube\Krittika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF34FD3-315F-4F9E-890B-3419D9B425CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC6948D-D0F3-40B7-ACF6-30BA47B55BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,16 +156,10 @@
     <t>19.13-19.23</t>
   </si>
   <si>
-    <t>19-24-19-25</t>
-  </si>
-  <si>
     <t>19.26-19.28</t>
   </si>
   <si>
     <t>19.29-19.30</t>
-  </si>
-  <si>
-    <t>19-31-19.36</t>
   </si>
   <si>
     <t>19.37-19.39</t>
@@ -1187,6 +1181,12 @@
   <si>
     <t>30.59-31.00</t>
   </si>
+  <si>
+    <t>19.24-19.25</t>
+  </si>
+  <si>
+    <t>19.31-19.36</t>
+  </si>
 </sst>
 </file>
 
@@ -1793,8 +1793,8 @@
   </sheetPr>
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1805,13 +1805,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>366</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1827,7 +1827,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B3" s="63" t="s">
         <v>18</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68" t="s">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="B11" s="69" t="s">
         <v>18</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>14</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>14</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>14</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>6</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="65" t="s">
         <v>6</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="65" t="s">
         <v>6</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>6</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="64" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>6</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>6</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>6</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>6</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="65" t="s">
         <v>6</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>6</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="65" t="s">
         <v>6</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>6</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="65" t="s">
         <v>6</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" s="65" t="s">
         <v>6</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="64" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B29" s="65" t="s">
         <v>6</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>6</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="68" t="s">
         <v>6</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="65" t="s">
         <v>6</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="65" t="s">
         <v>6</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="67" t="s">
         <v>18</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" s="67" t="s">
         <v>18</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="65" t="s">
         <v>6</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" s="65" t="s">
         <v>6</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" s="65" t="s">
         <v>6</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39" s="67" t="s">
         <v>18</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" s="67" t="s">
         <v>18</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" s="67" t="s">
         <v>18</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B42" s="65" t="s">
         <v>6</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="68" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B43" s="68" t="s">
         <v>6</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" s="65" t="s">
         <v>6</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B45" s="68" t="s">
         <v>6</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46" s="65" t="s">
         <v>6</v>
@@ -2303,18 +2303,18 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B47" s="65" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B48" s="69" t="s">
         <v>18</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B49" s="68" t="s">
         <v>6</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" s="68" t="s">
         <v>9</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" s="65" t="s">
         <v>9</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="68" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B52" s="68" t="s">
         <v>9</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="64" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B53" s="65" t="s">
         <v>9</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B54" s="65" t="s">
         <v>9</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B55" s="65" t="s">
         <v>6</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B56" s="68" t="s">
         <v>6</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B57" s="65" t="s">
         <v>6</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B58" s="67" t="s">
         <v>18</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B59" s="67" t="s">
         <v>18</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="64" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B60" s="67" t="s">
         <v>18</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="64" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61" s="65" t="s">
         <v>6</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="68" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B62" s="68" t="s">
         <v>6</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B63" s="65" t="s">
         <v>6</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="64" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B64" s="65" t="s">
         <v>6</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B65" s="65" t="s">
         <v>6</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B66" s="65" t="s">
         <v>14</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B67" s="68" t="s">
         <v>6</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B68" s="65" t="s">
         <v>6</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B69" s="68" t="s">
         <v>6</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B70" s="65" t="s">
         <v>6</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B71" s="68" t="s">
         <v>6</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B72" s="65" t="s">
         <v>6</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B73" s="68" t="s">
         <v>6</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B74" s="68" t="s">
         <v>9</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B75" s="65" t="s">
         <v>9</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B76" s="68" t="s">
         <v>14</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="64" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B77" s="65" t="s">
         <v>14</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B78" s="68" t="s">
         <v>14</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B79" s="65" t="s">
         <v>9</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B80" s="65" t="s">
         <v>14</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B81" s="65" t="s">
         <v>6</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B82" s="65" t="s">
         <v>6</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B83" s="65" t="s">
         <v>6</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B84" s="65" t="s">
         <v>15</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B85" s="65" t="s">
         <v>6</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B86" s="65" t="s">
         <v>6</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B87" s="67" t="s">
         <v>18</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B88" s="67" t="s">
         <v>18</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B89" s="67" t="s">
         <v>18</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="68" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B90" s="68" t="s">
         <v>6</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B91" s="65" t="s">
         <v>6</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B92" s="65" t="s">
         <v>6</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B93" s="68" t="s">
         <v>6</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="68" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B94" s="68" t="s">
         <v>14</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B95" s="65" t="s">
         <v>14</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="64" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B96" s="65" t="s">
         <v>14</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="68" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B97" s="68" t="s">
         <v>14</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B98" s="65" t="s">
         <v>14</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B99" s="68" t="s">
         <v>14</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B100" s="68" t="s">
         <v>6</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="64" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B101" s="65" t="s">
         <v>6</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B102" s="68" t="s">
         <v>6</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B103" s="65" t="s">
         <v>6</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B104" s="68" t="s">
         <v>6</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B105" s="65" t="s">
         <v>6</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B106" s="68" t="s">
         <v>6</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B107" s="65" t="s">
         <v>6</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B108" s="65" t="s">
         <v>6</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="68" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B109" s="68" t="s">
         <v>6</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B110" s="69" t="s">
         <v>18</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B111" s="67" t="s">
         <v>18</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="68" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B112" s="69" t="s">
         <v>18</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B113" s="67" t="s">
         <v>18</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B114" s="67" t="s">
         <v>18</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B115" s="67" t="s">
         <v>18</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B116" s="69" t="s">
         <v>18</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B117" s="67" t="s">
         <v>18</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="74" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B118" s="69" t="s">
         <v>18</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B119" s="67" t="s">
         <v>18</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="75" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B120" s="69" t="s">
         <v>18</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B121" s="67" t="s">
         <v>18</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B122" s="73" t="s">
         <v>6</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B123" s="73" t="s">
         <v>6</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B124" s="65" t="s">
         <v>6</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B125" s="65" t="s">
         <v>6</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B126" s="65" t="s">
         <v>6</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B127" s="65" t="s">
         <v>6</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B128" s="67" t="s">
         <v>18</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="64" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B129" s="67" t="s">
         <v>18</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B130" s="69" t="s">
         <v>18</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B131" s="67" t="s">
         <v>18</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="68" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B132" s="69" t="s">
         <v>18</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B133" s="67" t="s">
         <v>18</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B134" s="68" t="s">
         <v>6</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B135" s="65" t="s">
         <v>6</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B136" s="65" t="s">
         <v>6</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="64" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B137" s="65" t="s">
         <v>6</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B138" s="65" t="s">
         <v>14</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B139" s="70" t="s">
         <v>14</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="64" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B140" s="70" t="s">
         <v>14</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B141" s="68" t="s">
         <v>14</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>1</v>
@@ -3506,7 +3506,7 @@
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -3538,7 +3538,7 @@
     <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>9</v>
@@ -3570,7 +3570,7 @@
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -3602,7 +3602,7 @@
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>9</v>
@@ -3634,7 +3634,7 @@
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -3698,7 +3698,7 @@
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
       <c r="B13" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>9</v>
@@ -3762,7 +3762,7 @@
     <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31"/>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
@@ -3794,7 +3794,7 @@
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -3954,7 +3954,7 @@
     <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>9</v>
@@ -4018,7 +4018,7 @@
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -4050,7 +4050,7 @@
     <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>18</v>
@@ -4082,7 +4082,7 @@
     <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>9</v>
@@ -4146,7 +4146,7 @@
     <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>9</v>
@@ -4178,7 +4178,7 @@
     <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>9</v>
@@ -4210,7 +4210,7 @@
     <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>18</v>
@@ -4242,7 +4242,7 @@
     <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
@@ -4274,7 +4274,7 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
@@ -4306,7 +4306,7 @@
     <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
       <c r="B32" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>14</v>
@@ -4338,7 +4338,7 @@
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>15</v>
@@ -4370,7 +4370,7 @@
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>9</v>
@@ -4434,7 +4434,7 @@
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>6</v>
@@ -4466,7 +4466,7 @@
     <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>14</v>
@@ -4498,7 +4498,7 @@
     <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
       <c r="B38" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
@@ -4530,7 +4530,7 @@
     <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>14</v>
@@ -4562,7 +4562,7 @@
     <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>9</v>
@@ -4594,7 +4594,7 @@
     <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="B41" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>9</v>
@@ -4626,7 +4626,7 @@
     <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
       <c r="B42" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>15</v>
@@ -4658,7 +4658,7 @@
     <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31"/>
       <c r="B43" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
@@ -4690,7 +4690,7 @@
     <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
       <c r="B44" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>9</v>
@@ -4722,7 +4722,7 @@
     <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
       <c r="B45" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>14</v>
@@ -4754,7 +4754,7 @@
     <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
       <c r="B46" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
@@ -4786,7 +4786,7 @@
     <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
       <c r="B47" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
@@ -4818,7 +4818,7 @@
     <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
       <c r="B48" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>6</v>
@@ -4850,7 +4850,7 @@
     <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
       <c r="B49" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>18</v>
@@ -4914,7 +4914,7 @@
     <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>18</v>
@@ -4946,7 +4946,7 @@
     <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>14</v>
@@ -4978,7 +4978,7 @@
     <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
       <c r="B53" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>15</v>
@@ -5010,7 +5010,7 @@
     <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>18</v>
@@ -5042,7 +5042,7 @@
     <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
       <c r="B55" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>6</v>
@@ -5074,7 +5074,7 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
       <c r="B56" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>15</v>
@@ -5106,7 +5106,7 @@
     <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
       <c r="B57" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>14</v>
@@ -5138,7 +5138,7 @@
     <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
       <c r="B58" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>15</v>
@@ -5172,7 +5172,7 @@
         <v>33</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>18</v>
@@ -5204,7 +5204,7 @@
     <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
       <c r="B60" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>6</v>
@@ -5236,7 +5236,7 @@
     <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
       <c r="B61" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>18</v>
@@ -5268,7 +5268,7 @@
     <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31"/>
       <c r="B62" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>18</v>
@@ -5300,7 +5300,7 @@
     <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="31"/>
       <c r="B63" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>18</v>
@@ -5332,7 +5332,7 @@
     <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="31"/>
       <c r="B64" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>9</v>
@@ -5364,7 +5364,7 @@
     <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="31"/>
       <c r="B65" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>9</v>
@@ -5396,7 +5396,7 @@
     <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>18</v>
@@ -5428,7 +5428,7 @@
     <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="31"/>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>9</v>
@@ -5460,7 +5460,7 @@
     <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31"/>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>6</v>
@@ -5492,7 +5492,7 @@
     <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="31"/>
       <c r="B69" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>18</v>
@@ -5524,7 +5524,7 @@
     <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="31"/>
       <c r="B70" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>18</v>
@@ -5556,7 +5556,7 @@
     <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
       <c r="B71" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>18</v>
@@ -5588,7 +5588,7 @@
     <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="31"/>
       <c r="B72" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>6</v>
@@ -5620,7 +5620,7 @@
     <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="31"/>
       <c r="B73" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>9</v>
@@ -5652,7 +5652,7 @@
     <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="31"/>
       <c r="B74" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>6</v>
@@ -5684,7 +5684,7 @@
     <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="31"/>
       <c r="B75" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>18</v>
@@ -5716,7 +5716,7 @@
     <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="31"/>
       <c r="B76" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>9</v>
@@ -5748,7 +5748,7 @@
     <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="31"/>
       <c r="B77" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>14</v>
@@ -5780,7 +5780,7 @@
     <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="31"/>
       <c r="B78" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>18</v>
@@ -5812,7 +5812,7 @@
     <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
       <c r="B79" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>9</v>
@@ -5844,7 +5844,7 @@
     <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="31"/>
       <c r="B80" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>14</v>
@@ -5876,7 +5876,7 @@
     <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="31"/>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>9</v>
@@ -5908,7 +5908,7 @@
     <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="31"/>
       <c r="B82" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>14</v>
@@ -5940,7 +5940,7 @@
     <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="31"/>
       <c r="B83" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>18</v>
@@ -5972,7 +5972,7 @@
     <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>18</v>
@@ -6004,7 +6004,7 @@
     <row r="85" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="31"/>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>6</v>
@@ -6036,7 +6036,7 @@
     <row r="86" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="31"/>
       <c r="B86" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>6</v>
@@ -6068,7 +6068,7 @@
     <row r="87" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31"/>
       <c r="B87" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>18</v>
@@ -6100,7 +6100,7 @@
     <row r="88" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="31"/>
       <c r="B88" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>18</v>
@@ -6132,7 +6132,7 @@
     <row r="89" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="31"/>
       <c r="B89" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>9</v>
@@ -6164,7 +6164,7 @@
     <row r="90" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="31"/>
       <c r="B90" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>6</v>
@@ -6196,7 +6196,7 @@
     <row r="91" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31"/>
       <c r="B91" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>18</v>
@@ -6228,7 +6228,7 @@
     <row r="92" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="31"/>
       <c r="B92" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>18</v>
@@ -6260,7 +6260,7 @@
     <row r="93" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="31"/>
       <c r="B93" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>6</v>
@@ -6292,7 +6292,7 @@
     <row r="94" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31"/>
       <c r="B94" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>6</v>
@@ -6324,7 +6324,7 @@
     <row r="95" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="31"/>
       <c r="B95" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>18</v>
@@ -6356,7 +6356,7 @@
     <row r="96" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="31"/>
       <c r="B96" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>6</v>
@@ -6388,7 +6388,7 @@
     <row r="97" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31"/>
       <c r="B97" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>14</v>
@@ -6419,16 +6419,16 @@
     </row>
     <row r="98" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="28"/>
@@ -6454,13 +6454,13 @@
     <row r="99" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31"/>
       <c r="B99" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="28"/>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>1</v>
@@ -13980,7 +13980,7 @@
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>6</v>
@@ -14015,7 +14015,7 @@
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>18</v>
@@ -14048,7 +14048,7 @@
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>6</v>
@@ -14081,7 +14081,7 @@
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
       <c r="B9" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>9</v>
@@ -14116,7 +14116,7 @@
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>9</v>
@@ -14149,7 +14149,7 @@
     <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
@@ -14182,7 +14182,7 @@
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31"/>
       <c r="B12" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>9</v>
@@ -14215,7 +14215,7 @@
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
       <c r="B13" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
@@ -14248,7 +14248,7 @@
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31"/>
       <c r="B14" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>9</v>
@@ -14314,7 +14314,7 @@
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>9</v>
@@ -14347,7 +14347,7 @@
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>9</v>
@@ -14382,7 +14382,7 @@
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>6</v>
@@ -14417,7 +14417,7 @@
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>6</v>
@@ -14452,7 +14452,7 @@
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31"/>
       <c r="B20" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>6</v>
@@ -14485,7 +14485,7 @@
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>6</v>
@@ -14518,7 +14518,7 @@
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>6</v>
@@ -14551,7 +14551,7 @@
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>6</v>
@@ -14584,7 +14584,7 @@
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>6</v>
@@ -14617,7 +14617,7 @@
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>6</v>
@@ -14650,7 +14650,7 @@
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>6</v>
@@ -14683,7 +14683,7 @@
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>6</v>
@@ -14716,7 +14716,7 @@
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>6</v>
@@ -14749,7 +14749,7 @@
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>6</v>
@@ -14782,7 +14782,7 @@
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>18</v>
@@ -14955,7 +14955,7 @@
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
       <c r="B35" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -14990,7 +14990,7 @@
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -15023,7 +15023,7 @@
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>6</v>
@@ -15058,7 +15058,7 @@
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
       <c r="B38" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
@@ -15091,7 +15091,7 @@
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>6</v>
@@ -15124,7 +15124,7 @@
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>6</v>
@@ -15157,7 +15157,7 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="B41" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>14</v>
@@ -15192,7 +15192,7 @@
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
       <c r="B42" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
@@ -15330,7 +15330,7 @@
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
       <c r="B46" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
@@ -15365,7 +15365,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>9</v>
@@ -15435,7 +15435,7 @@
     <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
       <c r="B49" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>14</v>
@@ -15470,7 +15470,7 @@
     <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
       <c r="B50" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>14</v>
@@ -15503,7 +15503,7 @@
     <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
@@ -15536,7 +15536,7 @@
     <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>9</v>
@@ -15604,7 +15604,7 @@
     <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>9</v>
@@ -15674,7 +15674,7 @@
     <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
       <c r="B56" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>9</v>
@@ -15709,7 +15709,7 @@
     <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
       <c r="B57" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>15</v>
@@ -15744,7 +15744,7 @@
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
       <c r="B58" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>15</v>
@@ -15777,7 +15777,7 @@
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="31"/>
       <c r="B59" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>18</v>
@@ -15812,7 +15812,7 @@
     <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
       <c r="B60" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>15</v>
@@ -15847,7 +15847,7 @@
     <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
       <c r="B61" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>18</v>
@@ -15882,7 +15882,7 @@
     <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31"/>
       <c r="B62" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>15</v>
@@ -15948,7 +15948,7 @@
     <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="31"/>
       <c r="B64" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>9</v>
@@ -15981,7 +15981,7 @@
     <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="31"/>
       <c r="B65" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>15</v>
@@ -16016,7 +16016,7 @@
     <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
       <c r="B66" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>15</v>
@@ -16051,7 +16051,7 @@
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="31"/>
       <c r="B67" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>14</v>
@@ -16084,7 +16084,7 @@
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31"/>
       <c r="B68" s="39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>6</v>
@@ -16119,7 +16119,7 @@
     <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="31"/>
       <c r="B69" s="39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>6</v>
@@ -16185,7 +16185,7 @@
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
       <c r="B71" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>6</v>
@@ -16218,7 +16218,7 @@
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="31"/>
       <c r="B72" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>9</v>
@@ -16253,7 +16253,7 @@
     <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="31"/>
       <c r="B73" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>6</v>
@@ -16288,7 +16288,7 @@
     <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="31"/>
       <c r="B74" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>18</v>
@@ -16356,7 +16356,7 @@
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="31"/>
       <c r="B76" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>18</v>
@@ -16424,7 +16424,7 @@
     <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="31"/>
       <c r="B78" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>6</v>
@@ -16457,7 +16457,7 @@
     <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
       <c r="B79" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>6</v>
@@ -16490,7 +16490,7 @@
     <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="31"/>
       <c r="B80" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>6</v>
@@ -16523,7 +16523,7 @@
     <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="31"/>
       <c r="B81" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>6</v>
@@ -16556,7 +16556,7 @@
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="31"/>
       <c r="B82" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>16</v>
@@ -16591,7 +16591,7 @@
     <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="31"/>
       <c r="B83" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>9</v>
@@ -16626,7 +16626,7 @@
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
       <c r="B84" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>9</v>
@@ -16659,7 +16659,7 @@
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="31"/>
       <c r="B85" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>9</v>
@@ -16692,7 +16692,7 @@
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="31"/>
       <c r="B86" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>9</v>
@@ -16727,7 +16727,7 @@
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31"/>
       <c r="B87" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>9</v>
@@ -16760,7 +16760,7 @@
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="31"/>
       <c r="B88" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>9</v>
@@ -16859,7 +16859,7 @@
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31"/>
       <c r="B91" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>9</v>
@@ -16892,7 +16892,7 @@
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="31"/>
       <c r="B92" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>15</v>
@@ -16925,7 +16925,7 @@
     <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="31"/>
       <c r="B93" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>15</v>
@@ -16960,7 +16960,7 @@
     <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31"/>
       <c r="B94" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>14</v>
@@ -17028,7 +17028,7 @@
     <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="31"/>
       <c r="B96" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>14</v>
@@ -17061,7 +17061,7 @@
     <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31"/>
       <c r="B97" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>14</v>
@@ -17129,7 +17129,7 @@
     <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31"/>
       <c r="B99" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>9</v>
@@ -17162,7 +17162,7 @@
     <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="31"/>
       <c r="B100" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>9</v>
@@ -17195,7 +17195,7 @@
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="31"/>
       <c r="B101" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>9</v>
@@ -17228,7 +17228,7 @@
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="31"/>
       <c r="B102" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>9</v>
@@ -17261,7 +17261,7 @@
     <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31"/>
       <c r="B103" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>9</v>
@@ -17294,7 +17294,7 @@
     <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="31"/>
       <c r="B104" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>9</v>
@@ -17327,7 +17327,7 @@
     <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="31"/>
       <c r="B105" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>9</v>
@@ -17360,7 +17360,7 @@
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="31"/>
       <c r="B106" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>9</v>
@@ -17393,7 +17393,7 @@
     <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="31"/>
       <c r="B107" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>9</v>
@@ -17426,7 +17426,7 @@
     <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="31"/>
       <c r="B108" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>9</v>
@@ -17459,7 +17459,7 @@
     <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="31"/>
       <c r="B109" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>9</v>
@@ -17525,7 +17525,7 @@
     <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="31"/>
       <c r="B111" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>14</v>
@@ -17560,7 +17560,7 @@
     <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="31"/>
       <c r="B112" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>14</v>
@@ -17659,7 +17659,7 @@
     <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="31"/>
       <c r="B115" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>14</v>
@@ -17760,7 +17760,7 @@
     <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="31"/>
       <c r="B118" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>14</v>
@@ -17793,7 +17793,7 @@
     <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="31"/>
       <c r="B119" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>14</v>
@@ -17826,7 +17826,7 @@
     <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="31"/>
       <c r="B120" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>14</v>
@@ -17859,7 +17859,7 @@
     <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="31"/>
       <c r="B121" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>14</v>
@@ -17892,7 +17892,7 @@
     <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="31"/>
       <c r="B122" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>14</v>
@@ -17958,7 +17958,7 @@
     <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="31"/>
       <c r="B124" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>14</v>
@@ -18024,7 +18024,7 @@
     <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="31"/>
       <c r="B126" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>14</v>
@@ -18057,7 +18057,7 @@
     <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="31"/>
       <c r="B127" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>14</v>
@@ -18092,7 +18092,7 @@
     <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="31"/>
       <c r="B128" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>14</v>
@@ -18125,7 +18125,7 @@
     <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="31"/>
       <c r="B129" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>14</v>
@@ -18158,7 +18158,7 @@
     <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="31"/>
       <c r="B130" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C130" s="22" t="s">
         <v>6</v>
@@ -18193,7 +18193,7 @@
     <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="31"/>
       <c r="B131" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C131" s="22" t="s">
         <v>6</v>
@@ -18226,7 +18226,7 @@
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="31"/>
       <c r="B132" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C132" s="22" t="s">
         <v>6</v>
@@ -18259,7 +18259,7 @@
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="31"/>
       <c r="B133" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C133" s="22" t="s">
         <v>6</v>
@@ -18292,7 +18292,7 @@
     <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="31"/>
       <c r="B134" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C134" s="22" t="s">
         <v>6</v>
@@ -18325,7 +18325,7 @@
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="31"/>
       <c r="B135" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>18</v>
@@ -18360,7 +18360,7 @@
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="31"/>
       <c r="B136" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>18</v>
@@ -18428,7 +18428,7 @@
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="31"/>
       <c r="B138" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C138" s="14" t="s">
         <v>18</v>
@@ -18496,7 +18496,7 @@
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="31"/>
       <c r="B140" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>18</v>
@@ -18529,7 +18529,7 @@
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="31"/>
       <c r="B141" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>18</v>
@@ -18562,7 +18562,7 @@
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="31"/>
       <c r="B142" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>18</v>
@@ -18595,7 +18595,7 @@
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="31"/>
       <c r="B143" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C143" s="22" t="s">
         <v>14</v>
@@ -18630,7 +18630,7 @@
     <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="31"/>
       <c r="B144" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C144" s="22" t="s">
         <v>14</v>
@@ -18663,7 +18663,7 @@
     <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="31"/>
       <c r="B145" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C145" s="22" t="s">
         <v>14</v>
@@ -18696,7 +18696,7 @@
     <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="31"/>
       <c r="B146" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C146" s="22" t="s">
         <v>14</v>
@@ -18729,7 +18729,7 @@
     <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="31"/>
       <c r="B147" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C147" s="22" t="s">
         <v>15</v>
@@ -18764,7 +18764,7 @@
     <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="31"/>
       <c r="B148" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>18</v>
@@ -18799,7 +18799,7 @@
     <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="31"/>
       <c r="B149" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C149" s="22" t="s">
         <v>6</v>
@@ -18834,7 +18834,7 @@
     <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="31"/>
       <c r="B150" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C150" s="22" t="s">
         <v>15</v>
@@ -18869,7 +18869,7 @@
     <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="31"/>
       <c r="B151" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C151" s="22" t="s">
         <v>15</v>
@@ -18902,7 +18902,7 @@
     <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="31"/>
       <c r="B152" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C152" s="22" t="s">
         <v>15</v>
@@ -18935,7 +18935,7 @@
     <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="31"/>
       <c r="B153" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C153" s="22" t="s">
         <v>15</v>
@@ -18968,7 +18968,7 @@
     <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="31"/>
       <c r="B154" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C154" s="22" t="s">
         <v>15</v>
@@ -19001,7 +19001,7 @@
     <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="31"/>
       <c r="B155" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C155" s="22" t="s">
         <v>14</v>
@@ -19038,7 +19038,7 @@
         <v>25</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C156" s="22" t="s">
         <v>14</v>
@@ -19071,7 +19071,7 @@
     <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="31"/>
       <c r="B157" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C157" s="22" t="s">
         <v>14</v>
@@ -19104,7 +19104,7 @@
     <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="31"/>
       <c r="B158" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C158" s="22" t="s">
         <v>15</v>
@@ -19141,7 +19141,7 @@
         <v>33</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C159" s="18" t="s">
         <v>14</v>
@@ -19211,7 +19211,7 @@
     <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="45"/>
       <c r="B161" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C161" s="18" t="s">
         <v>6</v>
@@ -19244,7 +19244,7 @@
     <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="45"/>
       <c r="B162" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C162" s="18" t="s">
         <v>6</v>
@@ -19277,7 +19277,7 @@
     <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="45"/>
       <c r="B163" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C163" s="18" t="s">
         <v>6</v>
@@ -19310,7 +19310,7 @@
     <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="45"/>
       <c r="B164" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C164" s="18" t="s">
         <v>6</v>
@@ -19343,7 +19343,7 @@
     <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="45"/>
       <c r="B165" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C165" s="18" t="s">
         <v>6</v>
@@ -19376,7 +19376,7 @@
     <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="45"/>
       <c r="B166" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C166" s="18" t="s">
         <v>6</v>
@@ -19409,7 +19409,7 @@
     <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="45"/>
       <c r="B167" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C167" s="18" t="s">
         <v>6</v>
@@ -19510,7 +19510,7 @@
     <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="45"/>
       <c r="B170" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C170" s="21" t="s">
         <v>9</v>
@@ -19543,7 +19543,7 @@
     <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="45"/>
       <c r="B171" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C171" s="21" t="s">
         <v>9</v>
@@ -19576,7 +19576,7 @@
     <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="45"/>
       <c r="B172" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C172" s="21" t="s">
         <v>9</v>
@@ -19609,7 +19609,7 @@
     <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="45"/>
       <c r="B173" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>9</v>
@@ -19642,7 +19642,7 @@
     <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="45"/>
       <c r="B174" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C174" s="18" t="s">
         <v>14</v>
@@ -19677,7 +19677,7 @@
     <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="45"/>
       <c r="B175" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C175" s="18" t="s">
         <v>14</v>
@@ -19710,7 +19710,7 @@
     <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="45"/>
       <c r="B176" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>14</v>
@@ -19743,7 +19743,7 @@
     <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="45"/>
       <c r="B177" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C177" s="18" t="s">
         <v>14</v>
@@ -19778,7 +19778,7 @@
     <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="45"/>
       <c r="B178" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C178" s="18" t="s">
         <v>6</v>
@@ -19813,7 +19813,7 @@
     <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="45"/>
       <c r="B179" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C179" s="21" t="s">
         <v>9</v>
@@ -19848,7 +19848,7 @@
     <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="45"/>
       <c r="B180" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C180" s="18" t="s">
         <v>14</v>
@@ -19883,7 +19883,7 @@
     <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="45"/>
       <c r="B181" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C181" s="21" t="s">
         <v>9</v>
@@ -19918,7 +19918,7 @@
     <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="45"/>
       <c r="B182" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C182" s="18" t="s">
         <v>6</v>
@@ -19953,7 +19953,7 @@
     <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="45"/>
       <c r="B183" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C183" s="21" t="s">
         <v>9</v>
@@ -19988,7 +19988,7 @@
     <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="45"/>
       <c r="B184" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C184" s="21" t="s">
         <v>9</v>
@@ -20023,7 +20023,7 @@
     <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="45"/>
       <c r="B185" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C185" s="17" t="s">
         <v>18</v>
@@ -20058,7 +20058,7 @@
     <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="45"/>
       <c r="B186" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C186" s="18" t="s">
         <v>6</v>
@@ -20093,7 +20093,7 @@
     <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="45"/>
       <c r="B187" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C187" s="21" t="s">
         <v>9</v>
@@ -20128,7 +20128,7 @@
     <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="45"/>
       <c r="B188" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C188" s="18" t="s">
         <v>6</v>
@@ -20163,7 +20163,7 @@
     <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="45"/>
       <c r="B189" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C189" s="17" t="s">
         <v>18</v>
@@ -20198,7 +20198,7 @@
     <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="45"/>
       <c r="B190" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C190" s="21" t="s">
         <v>9</v>
@@ -20233,7 +20233,7 @@
     <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="45"/>
       <c r="B191" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C191" s="18" t="s">
         <v>14</v>
@@ -20268,7 +20268,7 @@
     <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="45"/>
       <c r="B192" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C192" s="18" t="s">
         <v>6</v>
@@ -20303,7 +20303,7 @@
     <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="45"/>
       <c r="B193" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C193" s="21" t="s">
         <v>9</v>
@@ -20338,7 +20338,7 @@
     <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="45"/>
       <c r="B194" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C194" s="18" t="s">
         <v>14</v>
@@ -20373,7 +20373,7 @@
     <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="45"/>
       <c r="B195" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C195" s="21" t="s">
         <v>9</v>
@@ -20408,7 +20408,7 @@
     <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="45"/>
       <c r="B196" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C196" s="18" t="s">
         <v>15</v>
@@ -20443,7 +20443,7 @@
     <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="45"/>
       <c r="B197" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C197" s="21" t="s">
         <v>9</v>
@@ -20478,7 +20478,7 @@
     <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="45"/>
       <c r="B198" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C198" s="18" t="s">
         <v>15</v>
@@ -20513,7 +20513,7 @@
     <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="45"/>
       <c r="B199" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C199" s="18" t="s">
         <v>6</v>
@@ -20548,7 +20548,7 @@
     <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="45"/>
       <c r="B200" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C200" s="18" t="s">
         <v>6</v>
@@ -20583,7 +20583,7 @@
     <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="45"/>
       <c r="B201" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C201" s="18" t="s">
         <v>6</v>
@@ -20618,7 +20618,7 @@
     <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="45"/>
       <c r="B202" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C202" s="17" t="s">
         <v>18</v>
@@ -20653,7 +20653,7 @@
     <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="45"/>
       <c r="B203" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C203" s="18" t="s">
         <v>14</v>
@@ -20688,7 +20688,7 @@
     <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="45"/>
       <c r="B204" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C204" s="18" t="s">
         <v>6</v>
@@ -20723,7 +20723,7 @@
     <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="45"/>
       <c r="B205" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C205" s="21" t="s">
         <v>9</v>
@@ -20758,7 +20758,7 @@
     <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="45"/>
       <c r="B206" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C206" s="21" t="s">
         <v>14</v>
@@ -20793,7 +20793,7 @@
     <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="45"/>
       <c r="B207" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C207" s="18" t="s">
         <v>6</v>
@@ -20828,7 +20828,7 @@
     <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="45"/>
       <c r="B208" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C208" s="18" t="s">
         <v>15</v>
@@ -20863,7 +20863,7 @@
     <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="45"/>
       <c r="B209" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C209" s="18" t="s">
         <v>15</v>
@@ -20898,7 +20898,7 @@
     <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="45"/>
       <c r="B210" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C210" s="18" t="s">
         <v>6</v>
@@ -20933,7 +20933,7 @@
     <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="45"/>
       <c r="B211" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C211" s="18" t="s">
         <v>14</v>
@@ -20967,17 +20967,17 @@
     </row>
     <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B212" s="49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C212" s="50" t="s">
         <v>16</v>
       </c>
       <c r="D212" s="50"/>
       <c r="E212" s="50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F212" s="51"/>
       <c r="G212" s="52"/>
@@ -21004,10 +21004,10 @@
     </row>
     <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="54" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B213" s="49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C213" s="50" t="s">
         <v>16</v>
@@ -21040,7 +21040,7 @@
     <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="52"/>
       <c r="B214" s="49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C214" s="50" t="s">
         <v>16</v>
@@ -21073,7 +21073,7 @@
     <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="52"/>
       <c r="B215" s="49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C215" s="49" t="s">
         <v>14</v>
@@ -21113,7 +21113,7 @@
       </c>
       <c r="D216" s="55"/>
       <c r="E216" s="50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F216" s="51"/>
       <c r="G216" s="52"/>
@@ -30099,7 +30099,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>1</v>
@@ -30301,7 +30301,7 @@
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -30334,7 +30334,7 @@
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>9</v>
@@ -30367,7 +30367,7 @@
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>9</v>
@@ -30400,7 +30400,7 @@
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -30433,7 +30433,7 @@
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -30499,7 +30499,7 @@
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
       <c r="B13" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>9</v>
@@ -30565,7 +30565,7 @@
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31"/>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
@@ -30598,7 +30598,7 @@
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -30763,7 +30763,7 @@
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>9</v>
@@ -30829,7 +30829,7 @@
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -30862,7 +30862,7 @@
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>9</v>
@@ -30895,7 +30895,7 @@
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>9</v>
@@ -30961,7 +30961,7 @@
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>9</v>
@@ -30994,7 +30994,7 @@
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>9</v>
@@ -31027,7 +31027,7 @@
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>18</v>
@@ -31060,7 +31060,7 @@
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
@@ -31093,7 +31093,7 @@
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>9</v>
@@ -31126,7 +31126,7 @@
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
       <c r="B32" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>15</v>
@@ -31159,7 +31159,7 @@
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>15</v>
@@ -31192,7 +31192,7 @@
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>6</v>
@@ -31258,7 +31258,7 @@
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>6</v>
@@ -31291,7 +31291,7 @@
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>9</v>
@@ -31324,7 +31324,7 @@
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
       <c r="B38" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
@@ -31357,7 +31357,7 @@
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>16</v>
@@ -31390,7 +31390,7 @@
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>9</v>
@@ -31423,7 +31423,7 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="B41" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>9</v>
@@ -31456,7 +31456,7 @@
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
       <c r="B42" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>15</v>
@@ -31489,7 +31489,7 @@
     <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31"/>
       <c r="B43" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
@@ -31522,7 +31522,7 @@
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
       <c r="B44" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>9</v>
@@ -31555,7 +31555,7 @@
     <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
       <c r="B45" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>14</v>
@@ -31588,7 +31588,7 @@
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
       <c r="B46" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>9</v>
@@ -31621,7 +31621,7 @@
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
       <c r="B47" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
@@ -31654,7 +31654,7 @@
     <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
       <c r="B48" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>6</v>
@@ -31687,7 +31687,7 @@
     <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
       <c r="B49" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>9</v>
@@ -31753,7 +31753,7 @@
     <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>9</v>
@@ -31786,7 +31786,7 @@
     <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>14</v>
@@ -31819,7 +31819,7 @@
     <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
       <c r="B53" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>15</v>
@@ -31852,7 +31852,7 @@
     <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>18</v>
@@ -31885,7 +31885,7 @@
     <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
       <c r="B55" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>6</v>
@@ -31918,7 +31918,7 @@
     <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
       <c r="B56" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>15</v>
@@ -31951,7 +31951,7 @@
     <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
       <c r="B57" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>14</v>
@@ -31984,7 +31984,7 @@
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
       <c r="B58" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>15</v>
@@ -32019,7 +32019,7 @@
         <v>33</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>18</v>
@@ -32052,7 +32052,7 @@
     <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
       <c r="B60" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>6</v>
@@ -32085,7 +32085,7 @@
     <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
       <c r="B61" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>9</v>
@@ -32118,7 +32118,7 @@
     <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31"/>
       <c r="B62" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>14</v>
@@ -32151,7 +32151,7 @@
     <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="31"/>
       <c r="B63" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>14</v>
@@ -32184,7 +32184,7 @@
     <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="31"/>
       <c r="B64" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>9</v>
@@ -32217,7 +32217,7 @@
     <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="31"/>
       <c r="B65" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>9</v>
@@ -32250,7 +32250,7 @@
     <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>14</v>
@@ -32283,7 +32283,7 @@
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="31"/>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>9</v>
@@ -32316,7 +32316,7 @@
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31"/>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>6</v>
@@ -32349,7 +32349,7 @@
     <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="31"/>
       <c r="B69" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>9</v>
@@ -32382,7 +32382,7 @@
     <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="31"/>
       <c r="B70" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>9</v>
@@ -32415,7 +32415,7 @@
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
       <c r="B71" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>18</v>
@@ -32448,7 +32448,7 @@
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="31"/>
       <c r="B72" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>14</v>
@@ -32481,7 +32481,7 @@
     <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="31"/>
       <c r="B73" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>9</v>
@@ -32514,7 +32514,7 @@
     <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="31"/>
       <c r="B74" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>18</v>
@@ -32547,7 +32547,7 @@
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="31"/>
       <c r="B75" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>18</v>
@@ -32580,7 +32580,7 @@
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="31"/>
       <c r="B76" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>9</v>
@@ -32613,7 +32613,7 @@
     <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="31"/>
       <c r="B77" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>14</v>
@@ -32646,7 +32646,7 @@
     <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="31"/>
       <c r="B78" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>9</v>
@@ -32679,7 +32679,7 @@
     <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
       <c r="B79" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>9</v>
@@ -32712,7 +32712,7 @@
     <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="31"/>
       <c r="B80" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>18</v>
@@ -32745,7 +32745,7 @@
     <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="31"/>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>9</v>
@@ -32778,7 +32778,7 @@
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="31"/>
       <c r="B82" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>15</v>
@@ -32811,7 +32811,7 @@
     <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="31"/>
       <c r="B83" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>9</v>
@@ -32844,7 +32844,7 @@
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>15</v>
@@ -32877,7 +32877,7 @@
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="31"/>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>15</v>
@@ -32910,7 +32910,7 @@
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="31"/>
       <c r="B86" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>18</v>
@@ -32943,7 +32943,7 @@
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31"/>
       <c r="B87" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>18</v>
@@ -32976,7 +32976,7 @@
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="31"/>
       <c r="B88" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>18</v>
@@ -33009,7 +33009,7 @@
     <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="31"/>
       <c r="B89" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>9</v>
@@ -33042,7 +33042,7 @@
     <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="31"/>
       <c r="B90" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>9</v>
@@ -33075,7 +33075,7 @@
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31"/>
       <c r="B91" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>9</v>
@@ -33108,7 +33108,7 @@
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="31"/>
       <c r="B92" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>14</v>
@@ -33141,7 +33141,7 @@
     <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="31"/>
       <c r="B93" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>9</v>
@@ -33174,7 +33174,7 @@
     <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31"/>
       <c r="B94" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>9</v>
@@ -33207,7 +33207,7 @@
     <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="31"/>
       <c r="B95" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>9</v>
@@ -33240,7 +33240,7 @@
     <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="31"/>
       <c r="B96" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>18</v>
@@ -33273,7 +33273,7 @@
     <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31"/>
       <c r="B97" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>14</v>
@@ -33305,17 +33305,17 @@
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="28"/>
@@ -33341,14 +33341,14 @@
     <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31"/>
       <c r="B99" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="28"/>

--- a/test_youtube/Krittika/02_gssspotted.xlsx
+++ b/test_youtube/Krittika/02_gssspotted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Documents\GitHub\AICARE\test_youtube\Krittika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC6948D-D0F3-40B7-ACF6-30BA47B55BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932B137E-77F8-4A96-8598-6C2132AF2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>20.53-20.56</t>
-  </si>
-  <si>
-    <t>20.58.21.08</t>
   </si>
   <si>
     <t>21.09-21.10</t>
@@ -1187,6 +1184,9 @@
   <si>
     <t>19.31-19.36</t>
   </si>
+  <si>
+    <t>20.58-21.08</t>
+  </si>
 </sst>
 </file>
 
@@ -1794,7 +1794,7 @@
   <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1805,13 +1805,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="C1" s="61" t="s">
         <v>365</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1827,7 +1827,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B3" s="63" t="s">
         <v>18</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B11" s="69" t="s">
         <v>18</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>14</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>6</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B29" s="65" t="s">
         <v>6</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="64" t="s">
-        <v>57</v>
+        <v>385</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>6</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="68" t="s">
         <v>6</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="65" t="s">
         <v>6</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="65" t="s">
         <v>6</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="67" t="s">
         <v>18</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="67" t="s">
         <v>18</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="65" t="s">
         <v>6</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="65" t="s">
         <v>6</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="65" t="s">
         <v>6</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="67" t="s">
         <v>18</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="67" t="s">
         <v>18</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="67" t="s">
         <v>18</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="65" t="s">
         <v>6</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B43" s="68" t="s">
         <v>6</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="65" t="s">
         <v>6</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="68" t="s">
         <v>6</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="65" t="s">
         <v>6</v>
@@ -2303,18 +2303,18 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="65" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="69" t="s">
         <v>18</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="68" t="s">
         <v>6</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="68" t="s">
         <v>9</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="65" t="s">
         <v>9</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B52" s="68" t="s">
         <v>9</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B53" s="65" t="s">
         <v>9</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="65" t="s">
         <v>9</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="65" t="s">
         <v>6</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="68" t="s">
         <v>6</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="65" t="s">
         <v>6</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="67" t="s">
         <v>18</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" s="67" t="s">
         <v>18</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="67" t="s">
         <v>18</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" s="65" t="s">
         <v>6</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="68" t="s">
         <v>6</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" s="65" t="s">
         <v>6</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="64" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B64" s="65" t="s">
         <v>6</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" s="65" t="s">
         <v>6</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66" s="65" t="s">
         <v>14</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" s="68" t="s">
         <v>6</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" s="65" t="s">
         <v>6</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" s="68" t="s">
         <v>6</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70" s="65" t="s">
         <v>6</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" s="68" t="s">
         <v>6</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72" s="65" t="s">
         <v>6</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" s="68" t="s">
         <v>6</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74" s="68" t="s">
         <v>9</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="65" t="s">
         <v>9</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" s="68" t="s">
         <v>14</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B77" s="65" t="s">
         <v>14</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B78" s="68" t="s">
         <v>14</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B79" s="65" t="s">
         <v>9</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B80" s="65" t="s">
         <v>14</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B81" s="65" t="s">
         <v>6</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B82" s="65" t="s">
         <v>6</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B83" s="65" t="s">
         <v>6</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84" s="65" t="s">
         <v>15</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B85" s="65" t="s">
         <v>6</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" s="65" t="s">
         <v>6</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" s="67" t="s">
         <v>18</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B88" s="67" t="s">
         <v>18</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B89" s="67" t="s">
         <v>18</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B90" s="68" t="s">
         <v>6</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B91" s="65" t="s">
         <v>6</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B92" s="65" t="s">
         <v>6</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B93" s="68" t="s">
         <v>6</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B94" s="68" t="s">
         <v>14</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B95" s="65" t="s">
         <v>14</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B96" s="65" t="s">
         <v>14</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B97" s="68" t="s">
         <v>14</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="65" t="s">
         <v>14</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B99" s="68" t="s">
         <v>14</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B100" s="68" t="s">
         <v>6</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B101" s="65" t="s">
         <v>6</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B102" s="68" t="s">
         <v>6</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B103" s="65" t="s">
         <v>6</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B104" s="68" t="s">
         <v>6</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B105" s="65" t="s">
         <v>6</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B106" s="68" t="s">
         <v>6</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" s="65" t="s">
         <v>6</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B108" s="65" t="s">
         <v>6</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="68" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B109" s="68" t="s">
         <v>6</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B110" s="69" t="s">
         <v>18</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B111" s="67" t="s">
         <v>18</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B112" s="69" t="s">
         <v>18</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113" s="67" t="s">
         <v>18</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114" s="67" t="s">
         <v>18</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B115" s="67" t="s">
         <v>18</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116" s="69" t="s">
         <v>18</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B117" s="67" t="s">
         <v>18</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B118" s="69" t="s">
         <v>18</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119" s="67" t="s">
         <v>18</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="75" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B120" s="69" t="s">
         <v>18</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B121" s="67" t="s">
         <v>18</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B122" s="73" t="s">
         <v>6</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B123" s="73" t="s">
         <v>6</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B124" s="65" t="s">
         <v>6</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B125" s="65" t="s">
         <v>6</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B126" s="65" t="s">
         <v>6</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B127" s="65" t="s">
         <v>6</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B128" s="67" t="s">
         <v>18</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B129" s="67" t="s">
         <v>18</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B130" s="69" t="s">
         <v>18</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B131" s="67" t="s">
         <v>18</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="68" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B132" s="69" t="s">
         <v>18</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B133" s="67" t="s">
         <v>18</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B134" s="68" t="s">
         <v>6</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B135" s="65" t="s">
         <v>6</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B136" s="65" t="s">
         <v>6</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B137" s="65" t="s">
         <v>6</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B138" s="65" t="s">
         <v>14</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B139" s="70" t="s">
         <v>14</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B140" s="70" t="s">
         <v>14</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B141" s="68" t="s">
         <v>14</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>1</v>
@@ -3506,7 +3506,7 @@
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -3538,7 +3538,7 @@
     <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>9</v>
@@ -3570,7 +3570,7 @@
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -3602,7 +3602,7 @@
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>9</v>
@@ -3634,7 +3634,7 @@
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -3698,7 +3698,7 @@
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>9</v>
@@ -3762,7 +3762,7 @@
     <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31"/>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
@@ -3794,7 +3794,7 @@
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -3954,7 +3954,7 @@
     <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>9</v>
@@ -4018,7 +4018,7 @@
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -4050,7 +4050,7 @@
     <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>18</v>
@@ -4082,7 +4082,7 @@
     <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>9</v>
@@ -4146,7 +4146,7 @@
     <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>9</v>
@@ -4178,7 +4178,7 @@
     <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>9</v>
@@ -4210,7 +4210,7 @@
     <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>18</v>
@@ -4242,7 +4242,7 @@
     <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
@@ -4274,7 +4274,7 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
@@ -4306,7 +4306,7 @@
     <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
       <c r="B32" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>14</v>
@@ -4338,7 +4338,7 @@
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>15</v>
@@ -4370,7 +4370,7 @@
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>9</v>
@@ -4434,7 +4434,7 @@
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>6</v>
@@ -4466,7 +4466,7 @@
     <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>14</v>
@@ -4498,7 +4498,7 @@
     <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
       <c r="B38" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
@@ -4530,7 +4530,7 @@
     <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>14</v>
@@ -4562,7 +4562,7 @@
     <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>9</v>
@@ -4594,7 +4594,7 @@
     <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="B41" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>9</v>
@@ -4626,7 +4626,7 @@
     <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
       <c r="B42" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>15</v>
@@ -4658,7 +4658,7 @@
     <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31"/>
       <c r="B43" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
@@ -4690,7 +4690,7 @@
     <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
       <c r="B44" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>9</v>
@@ -4722,7 +4722,7 @@
     <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
       <c r="B45" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>14</v>
@@ -4754,7 +4754,7 @@
     <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
       <c r="B46" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
@@ -4786,7 +4786,7 @@
     <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
       <c r="B47" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
@@ -4818,7 +4818,7 @@
     <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
       <c r="B48" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>6</v>
@@ -4850,7 +4850,7 @@
     <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
       <c r="B49" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>18</v>
@@ -4914,7 +4914,7 @@
     <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>18</v>
@@ -4946,7 +4946,7 @@
     <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>14</v>
@@ -4978,7 +4978,7 @@
     <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
       <c r="B53" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>15</v>
@@ -5010,7 +5010,7 @@
     <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>18</v>
@@ -5042,7 +5042,7 @@
     <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
       <c r="B55" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>6</v>
@@ -5074,7 +5074,7 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
       <c r="B56" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>15</v>
@@ -5106,7 +5106,7 @@
     <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
       <c r="B57" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>14</v>
@@ -5138,7 +5138,7 @@
     <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
       <c r="B58" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>15</v>
@@ -5172,7 +5172,7 @@
         <v>33</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>18</v>
@@ -5204,7 +5204,7 @@
     <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
       <c r="B60" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>6</v>
@@ -5236,7 +5236,7 @@
     <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
       <c r="B61" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>18</v>
@@ -5268,7 +5268,7 @@
     <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31"/>
       <c r="B62" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>18</v>
@@ -5300,7 +5300,7 @@
     <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="31"/>
       <c r="B63" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>18</v>
@@ -5332,7 +5332,7 @@
     <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="31"/>
       <c r="B64" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>9</v>
@@ -5364,7 +5364,7 @@
     <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="31"/>
       <c r="B65" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>9</v>
@@ -5396,7 +5396,7 @@
     <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
       <c r="B66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>18</v>
@@ -5428,7 +5428,7 @@
     <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="31"/>
       <c r="B67" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>9</v>
@@ -5460,7 +5460,7 @@
     <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31"/>
       <c r="B68" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>6</v>
@@ -5492,7 +5492,7 @@
     <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="31"/>
       <c r="B69" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>18</v>
@@ -5524,7 +5524,7 @@
     <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="31"/>
       <c r="B70" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>18</v>
@@ -5556,7 +5556,7 @@
     <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
       <c r="B71" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>18</v>
@@ -5588,7 +5588,7 @@
     <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="31"/>
       <c r="B72" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>6</v>
@@ -5620,7 +5620,7 @@
     <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="31"/>
       <c r="B73" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>9</v>
@@ -5652,7 +5652,7 @@
     <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="31"/>
       <c r="B74" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>6</v>
@@ -5684,7 +5684,7 @@
     <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="31"/>
       <c r="B75" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>18</v>
@@ -5716,7 +5716,7 @@
     <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="31"/>
       <c r="B76" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>9</v>
@@ -5748,7 +5748,7 @@
     <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="31"/>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>14</v>
@@ -5780,7 +5780,7 @@
     <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="31"/>
       <c r="B78" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>18</v>
@@ -5812,7 +5812,7 @@
     <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
       <c r="B79" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>9</v>
@@ -5844,7 +5844,7 @@
     <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="31"/>
       <c r="B80" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>14</v>
@@ -5876,7 +5876,7 @@
     <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="31"/>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>9</v>
@@ -5908,7 +5908,7 @@
     <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="31"/>
       <c r="B82" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>14</v>
@@ -5940,7 +5940,7 @@
     <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="31"/>
       <c r="B83" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>18</v>
@@ -5972,7 +5972,7 @@
     <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>18</v>
@@ -6004,7 +6004,7 @@
     <row r="85" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="31"/>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>6</v>
@@ -6036,7 +6036,7 @@
     <row r="86" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="31"/>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>6</v>
@@ -6068,7 +6068,7 @@
     <row r="87" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31"/>
       <c r="B87" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>18</v>
@@ -6100,7 +6100,7 @@
     <row r="88" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="31"/>
       <c r="B88" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>18</v>
@@ -6132,7 +6132,7 @@
     <row r="89" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="31"/>
       <c r="B89" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>9</v>
@@ -6164,7 +6164,7 @@
     <row r="90" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="31"/>
       <c r="B90" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>6</v>
@@ -6196,7 +6196,7 @@
     <row r="91" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31"/>
       <c r="B91" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>18</v>
@@ -6228,7 +6228,7 @@
     <row r="92" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="31"/>
       <c r="B92" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>18</v>
@@ -6260,7 +6260,7 @@
     <row r="93" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="31"/>
       <c r="B93" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>6</v>
@@ -6292,7 +6292,7 @@
     <row r="94" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31"/>
       <c r="B94" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>6</v>
@@ -6324,7 +6324,7 @@
     <row r="95" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="31"/>
       <c r="B95" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>18</v>
@@ -6356,7 +6356,7 @@
     <row r="96" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="31"/>
       <c r="B96" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>6</v>
@@ -6388,7 +6388,7 @@
     <row r="97" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31"/>
       <c r="B97" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>14</v>
@@ -6419,16 +6419,16 @@
     </row>
     <row r="98" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="28"/>
@@ -6454,13 +6454,13 @@
     <row r="99" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31"/>
       <c r="B99" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="28"/>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>1</v>
@@ -13980,7 +13980,7 @@
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>6</v>
@@ -14015,7 +14015,7 @@
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>18</v>
@@ -14048,7 +14048,7 @@
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>6</v>
@@ -14081,7 +14081,7 @@
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
       <c r="B9" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>9</v>
@@ -14116,7 +14116,7 @@
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>9</v>
@@ -14149,7 +14149,7 @@
     <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
@@ -14182,7 +14182,7 @@
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31"/>
       <c r="B12" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>9</v>
@@ -14215,7 +14215,7 @@
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
       <c r="B13" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
@@ -14248,7 +14248,7 @@
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31"/>
       <c r="B14" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>9</v>
@@ -14314,7 +14314,7 @@
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>9</v>
@@ -14347,7 +14347,7 @@
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>9</v>
@@ -14382,7 +14382,7 @@
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>6</v>
@@ -14417,7 +14417,7 @@
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>6</v>
@@ -14452,7 +14452,7 @@
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31"/>
       <c r="B20" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>6</v>
@@ -14485,7 +14485,7 @@
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>6</v>
@@ -14518,7 +14518,7 @@
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>6</v>
@@ -14551,7 +14551,7 @@
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>6</v>
@@ -14584,7 +14584,7 @@
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>6</v>
@@ -14617,7 +14617,7 @@
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>6</v>
@@ -14650,7 +14650,7 @@
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>6</v>
@@ -14683,7 +14683,7 @@
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>6</v>
@@ -14716,7 +14716,7 @@
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>6</v>
@@ -14749,7 +14749,7 @@
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>6</v>
@@ -14782,7 +14782,7 @@
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>18</v>
@@ -14955,7 +14955,7 @@
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
       <c r="B35" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>15</v>
@@ -14990,7 +14990,7 @@
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>15</v>
@@ -15023,7 +15023,7 @@
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>6</v>
@@ -15058,7 +15058,7 @@
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
       <c r="B38" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
@@ -15091,7 +15091,7 @@
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>6</v>
@@ -15124,7 +15124,7 @@
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>6</v>
@@ -15157,7 +15157,7 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="B41" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>14</v>
@@ -15192,7 +15192,7 @@
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
       <c r="B42" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
@@ -15330,7 +15330,7 @@
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
       <c r="B46" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
@@ -15365,7 +15365,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>9</v>
@@ -15435,7 +15435,7 @@
     <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
       <c r="B49" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>14</v>
@@ -15470,7 +15470,7 @@
     <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
       <c r="B50" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>14</v>
@@ -15503,7 +15503,7 @@
     <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
@@ -15536,7 +15536,7 @@
     <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>9</v>
@@ -15604,7 +15604,7 @@
     <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>9</v>
@@ -15674,7 +15674,7 @@
     <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
       <c r="B56" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>9</v>
@@ -15709,7 +15709,7 @@
     <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
       <c r="B57" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>15</v>
@@ -15744,7 +15744,7 @@
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
       <c r="B58" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>15</v>
@@ -15777,7 +15777,7 @@
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="31"/>
       <c r="B59" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>18</v>
@@ -15812,7 +15812,7 @@
     <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
       <c r="B60" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>15</v>
@@ -15847,7 +15847,7 @@
     <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
       <c r="B61" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>18</v>
@@ -15882,7 +15882,7 @@
     <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31"/>
       <c r="B62" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>15</v>
@@ -15948,7 +15948,7 @@
     <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="31"/>
       <c r="B64" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>9</v>
@@ -15981,7 +15981,7 @@
     <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="31"/>
       <c r="B65" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>15</v>
@@ -16016,7 +16016,7 @@
     <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
       <c r="B66" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>15</v>
@@ -16051,7 +16051,7 @@
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="31"/>
       <c r="B67" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>14</v>
@@ -16084,7 +16084,7 @@
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31"/>
       <c r="B68" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>6</v>
@@ -16119,7 +16119,7 @@
     <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="31"/>
       <c r="B69" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>6</v>
@@ -16185,7 +16185,7 @@
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
       <c r="B71" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>6</v>
@@ -16218,7 +16218,7 @@
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="31"/>
       <c r="B72" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>9</v>
@@ -16253,7 +16253,7 @@
     <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="31"/>
       <c r="B73" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>6</v>
@@ -16288,7 +16288,7 @@
     <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="31"/>
       <c r="B74" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>18</v>
@@ -16356,7 +16356,7 @@
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="31"/>
       <c r="B76" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>18</v>
@@ -16424,7 +16424,7 @@
     <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="31"/>
       <c r="B78" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>6</v>
@@ -16457,7 +16457,7 @@
     <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
       <c r="B79" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>6</v>
@@ -16490,7 +16490,7 @@
     <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="31"/>
       <c r="B80" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>6</v>
@@ -16523,7 +16523,7 @@
     <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="31"/>
       <c r="B81" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>6</v>
@@ -16556,7 +16556,7 @@
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="31"/>
       <c r="B82" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>16</v>
@@ -16591,7 +16591,7 @@
     <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="31"/>
       <c r="B83" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>9</v>
@@ -16626,7 +16626,7 @@
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
       <c r="B84" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>9</v>
@@ -16659,7 +16659,7 @@
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="31"/>
       <c r="B85" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>9</v>
@@ -16692,7 +16692,7 @@
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="31"/>
       <c r="B86" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>9</v>
@@ -16727,7 +16727,7 @@
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31"/>
       <c r="B87" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>9</v>
@@ -16760,7 +16760,7 @@
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="31"/>
       <c r="B88" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>9</v>
@@ -16859,7 +16859,7 @@
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31"/>
       <c r="B91" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>9</v>
@@ -16892,7 +16892,7 @@
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="31"/>
       <c r="B92" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>15</v>
@@ -16925,7 +16925,7 @@
     <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="31"/>
       <c r="B93" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>15</v>
@@ -16960,7 +16960,7 @@
     <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31"/>
       <c r="B94" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>14</v>
@@ -17028,7 +17028,7 @@
     <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="31"/>
       <c r="B96" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>14</v>
@@ -17061,7 +17061,7 @@
     <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31"/>
       <c r="B97" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>14</v>
@@ -17129,7 +17129,7 @@
     <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31"/>
       <c r="B99" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>9</v>
@@ -17162,7 +17162,7 @@
     <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="31"/>
       <c r="B100" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>9</v>
@@ -17195,7 +17195,7 @@
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="31"/>
       <c r="B101" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>9</v>
@@ -17228,7 +17228,7 @@
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="31"/>
       <c r="B102" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>9</v>
@@ -17261,7 +17261,7 @@
     <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31"/>
       <c r="B103" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>9</v>
@@ -17294,7 +17294,7 @@
     <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="31"/>
       <c r="B104" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>9</v>
@@ -17327,7 +17327,7 @@
     <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="31"/>
       <c r="B105" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>9</v>
@@ -17360,7 +17360,7 @@
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="31"/>
       <c r="B106" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>9</v>
@@ -17393,7 +17393,7 @@
     <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="31"/>
       <c r="B107" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>9</v>
@@ -17426,7 +17426,7 @@
     <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="31"/>
       <c r="B108" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>9</v>
@@ -17459,7 +17459,7 @@
     <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="31"/>
       <c r="B109" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>9</v>
@@ -17525,7 +17525,7 @@
     <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="31"/>
       <c r="B111" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>14</v>
@@ -17560,7 +17560,7 @@
     <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="31"/>
       <c r="B112" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>14</v>
@@ -17659,7 +17659,7 @@
     <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="31"/>
       <c r="B115" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>14</v>
@@ -17760,7 +17760,7 @@
     <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="31"/>
       <c r="B118" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>14</v>
@@ -17793,7 +17793,7 @@
     <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="31"/>
       <c r="B119" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>14</v>
@@ -17826,7 +17826,7 @@
     <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="31"/>
       <c r="B120" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>14</v>
@@ -17859,7 +17859,7 @@
     <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="31"/>
       <c r="B121" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>14</v>
@@ -17892,7 +17892,7 @@
     <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="31"/>
       <c r="B122" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>14</v>
@@ -17958,7 +17958,7 @@
     <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="31"/>
       <c r="B124" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>14</v>
@@ -18024,7 +18024,7 @@
     <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="31"/>
       <c r="B126" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>14</v>
@@ -18057,7 +18057,7 @@
     <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="31"/>
       <c r="B127" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>14</v>
@@ -18092,7 +18092,7 @@
     <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="31"/>
       <c r="B128" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>14</v>
@@ -18125,7 +18125,7 @@
     <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="31"/>
       <c r="B129" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>14</v>
@@ -18158,7 +18158,7 @@
     <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="31"/>
       <c r="B130" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C130" s="22" t="s">
         <v>6</v>
@@ -18193,7 +18193,7 @@
     <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="31"/>
       <c r="B131" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C131" s="22" t="s">
         <v>6</v>
@@ -18226,7 +18226,7 @@
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="31"/>
       <c r="B132" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C132" s="22" t="s">
         <v>6</v>
@@ -18259,7 +18259,7 @@
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="31"/>
       <c r="B133" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C133" s="22" t="s">
         <v>6</v>
@@ -18292,7 +18292,7 @@
     <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="31"/>
       <c r="B134" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C134" s="22" t="s">
         <v>6</v>
@@ -18325,7 +18325,7 @@
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="31"/>
       <c r="B135" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>18</v>
@@ -18360,7 +18360,7 @@
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="31"/>
       <c r="B136" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>18</v>
@@ -18428,7 +18428,7 @@
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="31"/>
       <c r="B138" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C138" s="14" t="s">
         <v>18</v>
@@ -18496,7 +18496,7 @@
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="31"/>
       <c r="B140" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>18</v>
@@ -18529,7 +18529,7 @@
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="31"/>
       <c r="B141" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>18</v>
@@ -18562,7 +18562,7 @@
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="31"/>
       <c r="B142" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>18</v>
@@ -18595,7 +18595,7 @@
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="31"/>
       <c r="B143" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C143" s="22" t="s">
         <v>14</v>
@@ -18630,7 +18630,7 @@
     <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="31"/>
       <c r="B144" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C144" s="22" t="s">
         <v>14</v>
@@ -18663,7 +18663,7 @@
     <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="31"/>
       <c r="B145" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C145" s="22" t="s">
         <v>14</v>
@@ -18696,7 +18696,7 @@
     <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="31"/>
       <c r="B146" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C146" s="22" t="s">
         <v>14</v>
@@ -18729,7 +18729,7 @@
     <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="31"/>
       <c r="B147" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C147" s="22" t="s">
         <v>15</v>
@@ -18764,7 +18764,7 @@
     <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="31"/>
       <c r="B148" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>18</v>
@@ -18799,7 +18799,7 @@
     <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="31"/>
       <c r="B149" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C149" s="22" t="s">
         <v>6</v>
@@ -18834,7 +18834,7 @@
     <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="31"/>
       <c r="B150" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C150" s="22" t="s">
         <v>15</v>
@@ -18869,7 +18869,7 @@
     <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="31"/>
       <c r="B151" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C151" s="22" t="s">
         <v>15</v>
@@ -18902,7 +18902,7 @@
     <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="31"/>
       <c r="B152" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C152" s="22" t="s">
         <v>15</v>
@@ -18935,7 +18935,7 @@
     <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="31"/>
       <c r="B153" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C153" s="22" t="s">
         <v>15</v>
@@ -18968,7 +18968,7 @@
     <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="31"/>
       <c r="B154" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C154" s="22" t="s">
         <v>15</v>
@@ -19001,7 +19001,7 @@
     <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="31"/>
       <c r="B155" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C155" s="22" t="s">
         <v>14</v>
@@ -19038,7 +19038,7 @@
         <v>25</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C156" s="22" t="s">
         <v>14</v>
@@ -19071,7 +19071,7 @@
     <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="31"/>
       <c r="B157" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C157" s="22" t="s">
         <v>14</v>
@@ -19104,7 +19104,7 @@
     <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="31"/>
       <c r="B158" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C158" s="22" t="s">
         <v>15</v>
@@ -19141,7 +19141,7 @@
         <v>33</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C159" s="18" t="s">
         <v>14</v>
@@ -19211,7 +19211,7 @@
     <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="45"/>
       <c r="B161" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C161" s="18" t="s">
         <v>6</v>
@@ -19244,7 +19244,7 @@
     <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="45"/>
       <c r="B162" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C162" s="18" t="s">
         <v>6</v>
@@ -19277,7 +19277,7 @@
     <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="45"/>
       <c r="B163" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C163" s="18" t="s">
         <v>6</v>
@@ -19310,7 +19310,7 @@
     <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="45"/>
       <c r="B164" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C164" s="18" t="s">
         <v>6</v>
@@ -19343,7 +19343,7 @@
     <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="45"/>
       <c r="B165" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C165" s="18" t="s">
         <v>6</v>
@@ -19376,7 +19376,7 @@
     <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="45"/>
       <c r="B166" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C166" s="18" t="s">
         <v>6</v>
@@ -19409,7 +19409,7 @@
     <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="45"/>
       <c r="B167" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C167" s="18" t="s">
         <v>6</v>
@@ -19510,7 +19510,7 @@
     <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="45"/>
       <c r="B170" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C170" s="21" t="s">
         <v>9</v>
@@ -19543,7 +19543,7 @@
     <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="45"/>
       <c r="B171" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C171" s="21" t="s">
         <v>9</v>
@@ -19576,7 +19576,7 @@
     <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="45"/>
       <c r="B172" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C172" s="21" t="s">
         <v>9</v>
@@ -19609,7 +19609,7 @@
     <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="45"/>
       <c r="B173" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>9</v>
@@ -19642,7 +19642,7 @@
     <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="45"/>
       <c r="B174" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C174" s="18" t="s">
         <v>14</v>
@@ -19677,7 +19677,7 @@
     <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="45"/>
       <c r="B175" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C175" s="18" t="s">
         <v>14</v>
@@ -19710,7 +19710,7 @@
     <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="45"/>
       <c r="B176" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>14</v>
@@ -19743,7 +19743,7 @@
     <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="45"/>
       <c r="B177" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C177" s="18" t="s">
         <v>14</v>
@@ -19778,7 +19778,7 @@
     <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="45"/>
       <c r="B178" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C178" s="18" t="s">
         <v>6</v>
@@ -19813,7 +19813,7 @@
     <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="45"/>
       <c r="B179" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C179" s="21" t="s">
         <v>9</v>
@@ -19848,7 +19848,7 @@
     <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="45"/>
       <c r="B180" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C180" s="18" t="s">
         <v>14</v>
@@ -19883,7 +19883,7 @@
     <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="45"/>
       <c r="B181" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C181" s="21" t="s">
         <v>9</v>
@@ -19918,7 +19918,7 @@
     <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="45"/>
       <c r="B182" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C182" s="18" t="s">
         <v>6</v>
@@ -19953,7 +19953,7 @@
     <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="45"/>
       <c r="B183" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C183" s="21" t="s">
         <v>9</v>
@@ -19988,7 +19988,7 @@
     <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="45"/>
       <c r="B184" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C184" s="21" t="s">
         <v>9</v>
@@ -20023,7 +20023,7 @@
     <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="45"/>
       <c r="B185" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C185" s="17" t="s">
         <v>18</v>
@@ -20058,7 +20058,7 @@
     <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="45"/>
       <c r="B186" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C186" s="18" t="s">
         <v>6</v>
@@ -20093,7 +20093,7 @@
     <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="45"/>
       <c r="B187" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C187" s="21" t="s">
         <v>9</v>
@@ -20128,7 +20128,7 @@
     <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="45"/>
       <c r="B188" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C188" s="18" t="s">
         <v>6</v>
@@ -20163,7 +20163,7 @@
     <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="45"/>
       <c r="B189" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C189" s="17" t="s">
         <v>18</v>
@@ -20198,7 +20198,7 @@
     <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="45"/>
       <c r="B190" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C190" s="21" t="s">
         <v>9</v>
@@ -20233,7 +20233,7 @@
     <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="45"/>
       <c r="B191" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C191" s="18" t="s">
         <v>14</v>
@@ -20268,7 +20268,7 @@
     <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="45"/>
       <c r="B192" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C192" s="18" t="s">
         <v>6</v>
@@ -20303,7 +20303,7 @@
     <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="45"/>
       <c r="B193" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C193" s="21" t="s">
         <v>9</v>
@@ -20338,7 +20338,7 @@
     <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="45"/>
       <c r="B194" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C194" s="18" t="s">
         <v>14</v>
@@ -20373,7 +20373,7 @@
     <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="45"/>
       <c r="B195" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C195" s="21" t="s">
         <v>9</v>
@@ -20408,7 +20408,7 @@
     <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="45"/>
       <c r="B196" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C196" s="18" t="s">
         <v>15</v>
@@ -20443,7 +20443,7 @@
     <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="45"/>
       <c r="B197" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C197" s="21" t="s">
         <v>9</v>
@@ -20478,7 +20478,7 @@
     <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="45"/>
       <c r="B198" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C198" s="18" t="s">
         <v>15</v>
@@ -20513,7 +20513,7 @@
     <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="45"/>
       <c r="B199" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C199" s="18" t="s">
         <v>6</v>
@@ -20548,7 +20548,7 @@
     <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="45"/>
       <c r="B200" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C200" s="18" t="s">
         <v>6</v>
@@ -20583,7 +20583,7 @@
     <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="45"/>
       <c r="B201" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C201" s="18" t="s">
         <v>6</v>
@@ -20618,7 +20618,7 @@
     <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="45"/>
       <c r="B202" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C202" s="17" t="s">
         <v>18</v>
@@ -20653,7 +20653,7 @@
     <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="45"/>
       <c r="B203" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C203" s="18" t="s">
         <v>14</v>
@@ -20688,7 +20688,7 @@
     <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="45"/>
       <c r="B204" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C204" s="18" t="s">
         <v>6</v>
@@ -20723,7 +20723,7 @@
     <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="45"/>
       <c r="B205" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C205" s="21" t="s">
         <v>9</v>
@@ -20758,7 +20758,7 @@
     <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="45"/>
       <c r="B206" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C206" s="21" t="s">
         <v>14</v>
@@ -20793,7 +20793,7 @@
     <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="45"/>
       <c r="B207" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C207" s="18" t="s">
         <v>6</v>
@@ -20828,7 +20828,7 @@
     <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="45"/>
       <c r="B208" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C208" s="18" t="s">
         <v>15</v>
@@ -20863,7 +20863,7 @@
     <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="45"/>
       <c r="B209" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C209" s="18" t="s">
         <v>15</v>
@@ -20898,7 +20898,7 @@
     <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="45"/>
       <c r="B210" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C210" s="18" t="s">
         <v>6</v>
@@ -20933,7 +20933,7 @@
     <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="45"/>
       <c r="B211" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C211" s="18" t="s">
         <v>14</v>
@@ -20967,17 +20967,17 @@
     </row>
     <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B212" s="49" t="s">
         <v>156</v>
-      </c>
-      <c r="B212" s="49" t="s">
-        <v>157</v>
       </c>
       <c r="C212" s="50" t="s">
         <v>16</v>
       </c>
       <c r="D212" s="50"/>
       <c r="E212" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F212" s="51"/>
       <c r="G212" s="52"/>
@@ -21004,10 +21004,10 @@
     </row>
     <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B213" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C213" s="50" t="s">
         <v>16</v>
@@ -21040,7 +21040,7 @@
     <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="52"/>
       <c r="B214" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C214" s="50" t="s">
         <v>16</v>
@@ -21073,7 +21073,7 @@
     <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="52"/>
       <c r="B215" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C215" s="49" t="s">
         <v>14</v>
@@ -21113,7 +21113,7 @@
       </c>
       <c r="D216" s="55"/>
       <c r="E216" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F216" s="51"/>
       <c r="G216" s="52"/>
@@ -30099,7 +30099,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>1</v>
@@ -30301,7 +30301,7 @@
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -30334,7 +30334,7 @@
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>9</v>
@@ -30367,7 +30367,7 @@
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>9</v>
@@ -30400,7 +30400,7 @@
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -30433,7 +30433,7 @@
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -30499,7 +30499,7 @@
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>9</v>
@@ -30565,7 +30565,7 @@
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31"/>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
@@ -30598,7 +30598,7 @@
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -30763,7 +30763,7 @@
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>9</v>
@@ -30829,7 +30829,7 @@
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -30862,7 +30862,7 @@
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>9</v>
@@ -30895,7 +30895,7 @@
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>9</v>
@@ -30961,7 +30961,7 @@
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>9</v>
@@ -30994,7 +30994,7 @@
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>9</v>
@@ -31027,7 +31027,7 @@
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>18</v>
@@ -31060,7 +31060,7 @@
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
@@ -31093,7 +31093,7 @@
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>9</v>
@@ -31126,7 +31126,7 @@
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
       <c r="B32" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>15</v>
@@ -31159,7 +31159,7 @@
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>15</v>
@@ -31192,7 +31192,7 @@
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>6</v>
@@ -31258,7 +31258,7 @@
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>6</v>
@@ -31291,7 +31291,7 @@
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>9</v>
@@ -31324,7 +31324,7 @@
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
       <c r="B38" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
@@ -31357,7 +31357,7 @@
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>16</v>
@@ -31390,7 +31390,7 @@
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>9</v>
@@ -31423,7 +31423,7 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="B41" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>9</v>
@@ -31456,7 +31456,7 @@
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
       <c r="B42" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>15</v>
@@ -31489,7 +31489,7 @@
     <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31"/>
       <c r="B43" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
@@ -31522,7 +31522,7 @@
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
       <c r="B44" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>9</v>
@@ -31555,7 +31555,7 @@
     <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
       <c r="B45" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>14</v>
@@ -31588,7 +31588,7 @@
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
       <c r="B46" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>9</v>
@@ -31621,7 +31621,7 @@
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
       <c r="B47" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
@@ -31654,7 +31654,7 @@
     <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
       <c r="B48" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>6</v>
@@ -31687,7 +31687,7 @@
     <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
       <c r="B49" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>9</v>
@@ -31753,7 +31753,7 @@
     <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>9</v>
@@ -31786,7 +31786,7 @@
     <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>14</v>
@@ -31819,7 +31819,7 @@
     <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
       <c r="B53" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>15</v>
@@ -31852,7 +31852,7 @@
     <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>18</v>
@@ -31885,7 +31885,7 @@
     <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
       <c r="B55" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>6</v>
@@ -31918,7 +31918,7 @@
     <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
       <c r="B56" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>15</v>
@@ -31951,7 +31951,7 @@
     <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
       <c r="B57" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>14</v>
@@ -31984,7 +31984,7 @@
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
       <c r="B58" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>15</v>
@@ -32019,7 +32019,7 @@
         <v>33</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>18</v>
@@ -32052,7 +32052,7 @@
     <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
       <c r="B60" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>6</v>
@@ -32085,7 +32085,7 @@
     <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
       <c r="B61" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>9</v>
@@ -32118,7 +32118,7 @@
     <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31"/>
       <c r="B62" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>14</v>
@@ -32151,7 +32151,7 @@
     <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="31"/>
       <c r="B63" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>14</v>
@@ -32184,7 +32184,7 @@
     <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="31"/>
       <c r="B64" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>9</v>
@@ -32217,7 +32217,7 @@
     <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="31"/>
       <c r="B65" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>9</v>
@@ -32250,7 +32250,7 @@
     <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
       <c r="B66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>14</v>
@@ -32283,7 +32283,7 @@
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="31"/>
       <c r="B67" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>9</v>
@@ -32316,7 +32316,7 @@
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31"/>
       <c r="B68" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>6</v>
@@ -32349,7 +32349,7 @@
     <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="31"/>
       <c r="B69" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>9</v>
@@ -32382,7 +32382,7 @@
     <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="31"/>
       <c r="B70" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>9</v>
@@ -32415,7 +32415,7 @@
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
       <c r="B71" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>18</v>
@@ -32448,7 +32448,7 @@
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="31"/>
       <c r="B72" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>14</v>
@@ -32481,7 +32481,7 @@
     <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="31"/>
       <c r="B73" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>9</v>
@@ -32514,7 +32514,7 @@
     <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="31"/>
       <c r="B74" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>18</v>
@@ -32547,7 +32547,7 @@
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="31"/>
       <c r="B75" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>18</v>
@@ -32580,7 +32580,7 @@
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="31"/>
       <c r="B76" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>9</v>
@@ -32613,7 +32613,7 @@
     <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="31"/>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>14</v>
@@ -32646,7 +32646,7 @@
     <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="31"/>
       <c r="B78" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>9</v>
@@ -32679,7 +32679,7 @@
     <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
       <c r="B79" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>9</v>
@@ -32712,7 +32712,7 @@
     <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="31"/>
       <c r="B80" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>18</v>
@@ -32745,7 +32745,7 @@
     <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="31"/>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>9</v>
@@ -32778,7 +32778,7 @@
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="31"/>
       <c r="B82" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>15</v>
@@ -32811,7 +32811,7 @@
     <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="31"/>
       <c r="B83" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>9</v>
@@ -32844,7 +32844,7 @@
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>15</v>
@@ -32877,7 +32877,7 @@
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="31"/>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>15</v>
@@ -32910,7 +32910,7 @@
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="31"/>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>18</v>
@@ -32943,7 +32943,7 @@
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31"/>
       <c r="B87" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>18</v>
@@ -32976,7 +32976,7 @@
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="31"/>
       <c r="B88" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>18</v>
@@ -33009,7 +33009,7 @@
     <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="31"/>
       <c r="B89" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>9</v>
@@ -33042,7 +33042,7 @@
     <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="31"/>
       <c r="B90" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>9</v>
@@ -33075,7 +33075,7 @@
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31"/>
       <c r="B91" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>9</v>
@@ -33108,7 +33108,7 @@
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="31"/>
       <c r="B92" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>14</v>
@@ -33141,7 +33141,7 @@
     <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="31"/>
       <c r="B93" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>9</v>
@@ -33174,7 +33174,7 @@
     <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31"/>
       <c r="B94" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>9</v>
@@ -33207,7 +33207,7 @@
     <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="31"/>
       <c r="B95" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>9</v>
@@ -33240,7 +33240,7 @@
     <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="31"/>
       <c r="B96" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>18</v>
@@ -33273,7 +33273,7 @@
     <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31"/>
       <c r="B97" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>14</v>
@@ -33305,17 +33305,17 @@
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="28"/>
@@ -33341,14 +33341,14 @@
     <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31"/>
       <c r="B99" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="28"/>
